--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3EF462-25CB-416B-AC69-C6BDC33C6E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096939C6-989D-41F3-80FE-259F6D25FA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23715" yWindow="-15075" windowWidth="14700" windowHeight="10080" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="10080" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
     <sheet name="module2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Total</t>
   </si>
@@ -96,6 +96,63 @@
   </si>
   <si>
     <t>Capítulo 14 Aula 10 – Alinhamento de textos com CSS</t>
+  </si>
+  <si>
+    <t>Capítulo 15 Aula 01 – Usando o id com CSS</t>
+  </si>
+  <si>
+    <t>Capítulo 15 Aula 02 – As diferenças entre id e class</t>
+  </si>
+  <si>
+    <t>Capítulo 15 Aula 03 – Pseudo-classes em CSS</t>
+  </si>
+  <si>
+    <t>Capítulo 15 Aula 04 – Pseudo-elementos em CSS</t>
+  </si>
+  <si>
+    <t>Capítulo 16 Aula 01 – Modelo de Caixas: primeiros passos</t>
+  </si>
+  <si>
+    <t>Capítulo 16 Aula 02 – Modelo de Caixas na prática (pt.1)</t>
+  </si>
+  <si>
+    <t>Capítulo 16 Aula 03 – Modelo de Caixas na prática (Pt.2)</t>
+  </si>
+  <si>
+    <t>Capítulo 16 Aula 4 – Grouping Tags em HTML5</t>
+  </si>
+  <si>
+    <t>Capítulo 16 Aula 5 – Sombra nas Caixas</t>
+  </si>
+  <si>
+    <t>Capítulo 16 Aula 6 – Caixas com vértices arredondados</t>
+  </si>
+  <si>
+    <t>Capítulo 16 Aula 7 – Bordas decoradas</t>
+  </si>
+  <si>
+    <t>Capítulo 16 Aula 8 – DESAFIO do Módulo 2</t>
+  </si>
+  <si>
+    <t>Fazendo o desafio</t>
+  </si>
+  <si>
+    <t>Capítulo 17 Aula 1 – Criando um projeto a partir do zero</t>
+  </si>
+  <si>
+    <t>Capítulo 17 Aula 2 – Navegando pelo projeto pronto</t>
+  </si>
+  <si>
+    <t>Capítulo 17 Aula 3 – Planejando a estrutura do seu site</t>
+  </si>
+  <si>
+    <t>Capítulo 17 Aula 4 – Transformando o layout em código</t>
+  </si>
+  <si>
+    <t>Capítulo 17 Aula 5 – Organizando o conteúdo do site</t>
+  </si>
+  <si>
+    <t>Capítulo 17 Aula 6 – Variáveis em CSS</t>
   </si>
 </sst>
 </file>
@@ -103,7 +160,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -136,10 +193,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -456,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB441E67-A5E4-4DE3-B82F-CDFFD92B24D6}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -559,7 +616,7 @@
         <v>0.63402777777777775</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E17" si="0">D6-C6</f>
+        <f t="shared" ref="E6:E37" si="0">D6-C6</f>
         <v>1.1111111111111072E-2</v>
       </c>
       <c r="F6" s="2">
@@ -777,7 +834,7 @@
         <v>0.16458333333333297</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -798,7 +855,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -807,6 +864,428 @@
       </c>
       <c r="C18" s="1">
         <v>0.51597222222222217</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777724E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8750000000000044E-2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.70624999999999993</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.72361111111111109</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6388888888888906E-2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27" s="2">
+        <v>44978</v>
+      </c>
+      <c r="G27" s="1">
+        <f>SUM(E19:E27)</f>
+        <v>0.1652777777777778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8055555555555602E-2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3194444444444509E-2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5972222222222165E-2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.82361111111111107</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1666666666665408E-3</v>
+      </c>
+      <c r="F33" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8611111111110938E-3</v>
+      </c>
+      <c r="F34" s="2">
+        <v>44979</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.87083333333333324</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6388888888888795E-2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.89097222222222217</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9444444444444375E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.90069444444444446</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6805555555555536E-2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3">
+        <v>20</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F39" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F40" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G41" s="1">
+        <f>SUM(E28:E40)</f>
+        <v>0.23263888888888862</v>
       </c>
     </row>
   </sheetData>

--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096939C6-989D-41F3-80FE-259F6D25FA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA59A4A3-7E6B-4266-9F9A-F6D3F2519C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="10080" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="16980" yWindow="-14535" windowWidth="11025" windowHeight="13215" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
     <sheet name="module2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Total</t>
   </si>
@@ -153,6 +153,24 @@
   </si>
   <si>
     <t>Capítulo 17 Aula 6 – Variáveis em CSS</t>
+  </si>
+  <si>
+    <t>Capítulo 17 Aula 7 – Responsividade para sites</t>
+  </si>
+  <si>
+    <t>Capítulo 17 Aula 8 – Responsividade na prática</t>
+  </si>
+  <si>
+    <t>Capítulo 17 Aula 9 – Configurando o header e o menu do site</t>
+  </si>
+  <si>
+    <t>Capítulo 17 Aula 10 – Melhorando o formato do conteúdo</t>
+  </si>
+  <si>
+    <t>Capítulo 17 Aula 11 – Rodapé, conteúdo periférico e links</t>
+  </si>
+  <si>
+    <t>Capítulo 17 Aula 12 – Tornando um vídeo responsivo</t>
   </si>
 </sst>
 </file>
@@ -513,15 +531,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB441E67-A5E4-4DE3-B82F-CDFFD92B24D6}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="46.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.89453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83984375" style="3"/>
     <col min="3" max="4" width="8.83984375" style="1"/>
     <col min="6" max="6" width="9.83984375" style="2" bestFit="1" customWidth="1"/>
@@ -616,7 +634,7 @@
         <v>0.63402777777777775</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E37" si="0">D6-C6</f>
+        <f t="shared" ref="E6:E44" si="0">D6-C6</f>
         <v>1.1111111111111072E-2</v>
       </c>
       <c r="F6" s="2">
@@ -1268,24 +1286,157 @@
       <c r="B38" s="3">
         <v>20</v>
       </c>
+      <c r="C38" s="1">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8472222222222232E-2</v>
+      </c>
       <c r="F38" s="2">
         <v>44979</v>
       </c>
+      <c r="G38" s="1">
+        <f>SUM(E28:E38)</f>
+        <v>0.26111111111111085</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3">
+        <v>20</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9861111111111116E-2</v>
+      </c>
       <c r="F39" s="2">
-        <v>44979</v>
+        <v>44980</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3611111111111138E-2</v>
+      </c>
       <c r="F40" s="2">
-        <v>44979</v>
+        <v>44980</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G41" s="1">
-        <f>SUM(E28:E40)</f>
-        <v>0.23263888888888862</v>
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="F41" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777724E-2</v>
+      </c>
+      <c r="F42" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0555555555555447E-2</v>
+      </c>
+      <c r="F43" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="F44" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F45" s="2">
+        <v>44980</v>
+      </c>
+      <c r="G45" s="1">
+        <f>SUM(E39:E45)</f>
+        <v>0.13402777777777752</v>
       </c>
     </row>
   </sheetData>

--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA59A4A3-7E6B-4266-9F9A-F6D3F2519C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F876DB-28F8-4483-8405-0FA4A72DFBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="-14535" windowWidth="11025" windowHeight="13215" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="28785" yWindow="-15435" windowWidth="13485" windowHeight="9930" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
-    <sheet name="module2" sheetId="1" r:id="rId1"/>
+    <sheet name="module3" sheetId="2" r:id="rId1"/>
+    <sheet name="module2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Total</t>
   </si>
@@ -171,6 +172,33 @@
   </si>
   <si>
     <t>Capítulo 17 Aula 12 – Tornando um vídeo responsivo</t>
+  </si>
+  <si>
+    <t>Fim do Módulo 2: certificados liberados</t>
+  </si>
+  <si>
+    <t>Capítulo 18 Aula 00 – O que vamos aprender no módulo 3?</t>
+  </si>
+  <si>
+    <t>Capítulo 18 Aula 01 – O que é Git e GitHub?</t>
+  </si>
+  <si>
+    <t>Capítulo 18 Aula 02 – Instalando Git e GitHub no PC</t>
+  </si>
+  <si>
+    <t>Capítulo 18 Aula 03 – Criando conta no GitHub</t>
+  </si>
+  <si>
+    <t>Capítulo 18 Aula 04 – Primeiro repositório git e GitHub</t>
+  </si>
+  <si>
+    <t>Capítulo 18 Aula 05 – Gerenciando Repositórios GitHub</t>
+  </si>
+  <si>
+    <t>Capítulo 18 Aula 06 – Hospedando site gratuitamente com GitHub Pages</t>
+  </si>
+  <si>
+    <t>Capítulo 18 Aula 07 – Manutenção em sites hospedados no GitHub Pages</t>
   </si>
 </sst>
 </file>
@@ -530,11 +558,727 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6477F9D2-859D-45A0-B918-D94927AC7D3F}">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="57.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="3"/>
+    <col min="3" max="4" width="8.83984375" style="1"/>
+    <col min="6" max="6" width="9.83984375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.74583333333333324</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2-C2</f>
+        <v>6.2500000000000888E-3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.75277777777777777</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E17" si="0">D3-C3</f>
+        <v>9.7222222222222987E-3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.7631944444444444</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0277777777777457E-3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.79027777777777775</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111072E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="3">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8055555555555602E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.88194444444444453</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4"/>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <f>SUM(E6:E16)</f>
+        <v>-0.84236111111111112</v>
+      </c>
+      <c r="J16" s="1">
+        <f>G16+G27+G38+G51</f>
+        <v>-0.48958333333333393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="1"/>
+      <c r="F18" s="2">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" s="1"/>
+      <c r="F19" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="1"/>
+      <c r="F20" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="1"/>
+      <c r="F21" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="1"/>
+      <c r="F22" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="1"/>
+      <c r="F23" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" s="1"/>
+      <c r="F24" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" s="1"/>
+      <c r="F25" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" s="1"/>
+      <c r="F26" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27" s="2">
+        <v>44978</v>
+      </c>
+      <c r="G27" s="1">
+        <f>SUM(E19:E27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="1"/>
+      <c r="F28" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29" s="1"/>
+      <c r="F29" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30" s="1"/>
+      <c r="F30" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" ref="E6:E45" si="1">D31-C31</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.82361111111111107</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1666666666665408E-3</v>
+      </c>
+      <c r="F33" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8611111111110938E-3</v>
+      </c>
+      <c r="F34" s="2">
+        <v>44979</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.87083333333333324</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6388888888888795E-2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.89097222222222217</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9444444444444375E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.90069444444444446</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6805555555555536E-2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8472222222222232E-2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44979</v>
+      </c>
+      <c r="G38" s="1">
+        <f>SUM(E28:E38)</f>
+        <v>0.21388888888888857</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3">
+        <v>20</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9861111111111116E-2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="F41" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5277777777777724E-2</v>
+      </c>
+      <c r="F42" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0555555555555447E-2</v>
+      </c>
+      <c r="F43" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="1"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="F44" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="3">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.69930555555555562</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8611111111110938E-3</v>
+      </c>
+      <c r="F45" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F46" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="3">
+        <f>SUM(B2:B45)</f>
+        <v>316</v>
+      </c>
+      <c r="F47" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F48" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="3">
+        <f>B47/60</f>
+        <v>5.2666666666666666</v>
+      </c>
+      <c r="F49" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G51" s="1">
+        <f>SUM(E39:E45)</f>
+        <v>0.13888888888888862</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB441E67-A5E4-4DE3-B82F-CDFFD92B24D6}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -545,7 +1289,7 @@
     <col min="6" max="6" width="9.83984375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -559,7 +1303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3">
         <v>28</v>
       </c>
@@ -567,7 +1311,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -578,7 +1322,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -599,7 +1343,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -620,7 +1364,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -634,14 +1378,14 @@
         <v>0.63402777777777775</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E44" si="0">D6-C6</f>
+        <f t="shared" ref="E6:E45" si="0">D6-C6</f>
         <v>1.1111111111111072E-2</v>
       </c>
       <c r="F6" s="2">
         <v>44976</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -662,7 +1406,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -683,7 +1427,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -704,7 +1448,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -725,7 +1469,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -746,7 +1490,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -767,7 +1511,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -788,7 +1532,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -809,7 +1553,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -830,7 +1574,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -851,6 +1595,10 @@
         <f>SUM(E6:E16)</f>
         <v>0.16458333333333297</v>
       </c>
+      <c r="J16" s="1">
+        <f>G16+G27+G38+G51</f>
+        <v>0.72986111111111018</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
@@ -1414,7 +2162,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="3">
-        <v>0.58333333333333337</v>
+        <v>14</v>
       </c>
       <c r="C44" s="1">
         <v>0.67083333333333339</v>
@@ -1431,12 +2179,63 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="3">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.69930555555555562</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8611111111110938E-3</v>
+      </c>
       <c r="F45" s="2">
         <v>44980</v>
       </c>
-      <c r="G45" s="1">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F46" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="3">
+        <f>SUM(B2:B45)</f>
+        <v>663</v>
+      </c>
+      <c r="F47" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F48" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="3">
+        <f>B47/60</f>
+        <v>11.05</v>
+      </c>
+      <c r="F49" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G51" s="1">
         <f>SUM(E39:E45)</f>
-        <v>0.13402777777777752</v>
+        <v>0.13888888888888862</v>
       </c>
     </row>
   </sheetData>

--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F876DB-28F8-4483-8405-0FA4A72DFBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F7774A-D6DE-4A52-A07E-66E2947801EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28785" yWindow="-15435" windowWidth="13485" windowHeight="9930" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="23235" yWindow="-12360" windowWidth="18690" windowHeight="9990" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
     <sheet name="module3" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Total</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>Capítulo 18 Aula 07 – Manutenção em sites hospedados no GitHub Pages</t>
+  </si>
+  <si>
+    <t>Capítulo 18 Aula 08 – Recursos Sociais do GitHub</t>
+  </si>
+  <si>
+    <t>Capítulo 18 Aula 09 – Clonando Repositórios GitHub</t>
+  </si>
+  <si>
+    <t>Capítulo 18 Aula 10 – GitHub em vários PCs</t>
+  </si>
+  <si>
+    <t>Capítulo 19 Aula 01- Download das imagens do capítulo</t>
   </si>
 </sst>
 </file>
@@ -561,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6477F9D2-859D-45A0-B918-D94927AC7D3F}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -571,6 +583,7 @@
     <col min="2" max="2" width="8.83984375" style="3"/>
     <col min="3" max="4" width="8.83984375" style="1"/>
     <col min="6" max="6" width="9.83984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -744,42 +757,93 @@
       <c r="C9" s="1">
         <v>0.88194444444444453</v>
       </c>
+      <c r="D9" s="1">
+        <v>0.88888888888888884</v>
+      </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>-0.88194444444444453</v>
+        <v>6.9444444444443088E-3</v>
       </c>
       <c r="F9" s="2">
         <v>44980</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.91041666666666676</v>
+      </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1805555555555625E-2</v>
       </c>
       <c r="F10" s="2">
         <v>44980</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="3">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.92013888888888884</v>
+      </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0277777777777457E-3</v>
       </c>
       <c r="F11" s="2">
         <v>44980</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="3">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.92083333333333339</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.9375</v>
+      </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6666666666666607E-2</v>
       </c>
       <c r="F12" s="2">
         <v>44980</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.94027777777777777</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.94027777777777777</v>
+      </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -808,464 +872,105 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4"/>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <f>SUM(E6:E16)</f>
-        <v>-0.84236111111111112</v>
-      </c>
-      <c r="J16" s="1">
-        <f>G16+G27+G38+G51</f>
-        <v>-0.48958333333333393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>44977</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" s="1"/>
-      <c r="F18" s="2">
-        <v>44977</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="1">
+        <f>SUM(E2:E18)+module2!G51</f>
+        <v>0.25416666666666643</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="1"/>
-      <c r="F19" s="2">
-        <v>44978</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="1"/>
-      <c r="F20" s="2">
-        <v>44978</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="1"/>
-      <c r="F21" s="2">
-        <v>44978</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="1"/>
-      <c r="F22" s="2">
-        <v>44978</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="1"/>
-      <c r="F23" s="2">
-        <v>44978</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="1"/>
-      <c r="F24" s="2">
-        <v>44978</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="1"/>
-      <c r="F25" s="2">
-        <v>44978</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" s="1"/>
-      <c r="F26" s="2">
-        <v>44978</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="F27" s="2">
-        <v>44978</v>
-      </c>
-      <c r="G27" s="1">
-        <f>SUM(E19:E27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="1"/>
-      <c r="F28" s="2">
-        <v>44979</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E29" s="1"/>
-      <c r="F29" s="2">
-        <v>44979</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="1"/>
-      <c r="F30" s="2">
-        <v>44979</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.60069444444444442</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" ref="E6:E45" si="1">D31-C31</f>
-        <v>1.041666666666663E-2</v>
-      </c>
-      <c r="F31" s="2">
-        <v>44979</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="1"/>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="F32" s="2">
-        <v>44979</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="3">
-        <v>10</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.82361111111111107</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="1"/>
-        <v>4.1666666666665408E-3</v>
-      </c>
-      <c r="F33" s="2">
-        <v>44979</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="3">
-        <v>9</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.83888888888888891</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="1"/>
-        <v>4.8611111111110938E-3</v>
-      </c>
-      <c r="F34" s="2">
-        <v>44979</v>
-      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="3">
-        <v>15</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.84444444444444444</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.87083333333333324</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6388888888888795E-2</v>
-      </c>
-      <c r="F35" s="2">
-        <v>44979</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="3">
-        <v>17</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.87152777777777779</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.89097222222222217</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="1"/>
-        <v>1.9444444444444375E-2</v>
-      </c>
-      <c r="F36" s="2">
-        <v>44979</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="3">
-        <v>21</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0.90069444444444446</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.9375</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="1"/>
-        <v>3.6805555555555536E-2</v>
-      </c>
-      <c r="F37" s="2">
-        <v>44979</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="3">
-        <v>20</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.95486111111111116</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.98333333333333339</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="1"/>
-        <v>2.8472222222222232E-2</v>
-      </c>
-      <c r="F38" s="2">
-        <v>44979</v>
-      </c>
-      <c r="G38" s="1">
-        <f>SUM(E28:E38)</f>
-        <v>0.21388888888888857</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="3">
-        <v>20</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.45277777777777778</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.4826388888888889</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="1"/>
-        <v>2.9861111111111116E-2</v>
-      </c>
-      <c r="F39" s="2">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="3">
-        <v>15</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.49027777777777781</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="1"/>
-        <v>2.3611111111111138E-2</v>
-      </c>
-      <c r="F40" s="2">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="3">
-        <v>16</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0833333333333259E-2</v>
-      </c>
-      <c r="F41" s="2">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="3">
-        <v>17</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.54791666666666672</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.56319444444444444</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5277777777777724E-2</v>
-      </c>
-      <c r="F42" s="2">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="3">
-        <v>17</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.63611111111111118</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E43" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0555555555555447E-2</v>
-      </c>
-      <c r="F43" s="2">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="3">
-        <v>14</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.67083333333333339</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.68472222222222223</v>
-      </c>
-      <c r="E44" s="1">
-        <f t="shared" si="1"/>
-        <v>1.388888888888884E-2</v>
-      </c>
-      <c r="F44" s="2">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="3">
-        <v>17</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.69930555555555562</v>
-      </c>
-      <c r="E45" s="1">
-        <f t="shared" si="1"/>
-        <v>4.8611111111110938E-3</v>
-      </c>
-      <c r="F45" s="2">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="F46" s="2">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="3">
-        <f>SUM(B2:B45)</f>
-        <v>316</v>
-      </c>
-      <c r="F47" s="2">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="F48" s="2">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="3">
-        <f>B47/60</f>
-        <v>5.2666666666666666</v>
-      </c>
-      <c r="F49" s="2">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="F50" s="2">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G51" s="1">
-        <f>SUM(E39:E45)</f>
-        <v>0.13888888888888862</v>
-      </c>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1277,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB441E67-A5E4-4DE3-B82F-CDFFD92B24D6}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>

--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F7774A-D6DE-4A52-A07E-66E2947801EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF72342-70A7-4384-A487-C76A1E3312AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23235" yWindow="-12360" windowWidth="18690" windowHeight="9990" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="23235" yWindow="-12360" windowWidth="15705" windowHeight="11280" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
     <sheet name="module3" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Total</t>
   </si>
@@ -211,6 +211,21 @@
   </si>
   <si>
     <t>Capítulo 19 Aula 01- Download das imagens do capítulo</t>
+  </si>
+  <si>
+    <t>Capítulo 19 Aula 02 – Colocando uma imagem de fundo no seu site</t>
+  </si>
+  <si>
+    <t>Capítulo 19 Aula 03 – Imagens que se repetem no fundo do site</t>
+  </si>
+  <si>
+    <t>Capítulo 19 Aula 04 – Configurando a posição da imagem no fundo do site</t>
+  </si>
+  <si>
+    <t>Capítulo 19 Aula 05 – Mudando o tamanho da imagem de fundo do site</t>
+  </si>
+  <si>
+    <t>Capítulo 19 Aula 06 – background-attachment e shorthand</t>
   </si>
 </sst>
 </file>
@@ -574,7 +589,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -635,7 +650,7 @@
         <v>0.76250000000000007</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E17" si="0">D3-C3</f>
+        <f t="shared" ref="E3:E18" si="0">D3-C3</f>
         <v>9.7222222222222987E-3</v>
       </c>
       <c r="F3" s="2">
@@ -842,90 +857,173 @@
         <v>0.94027777777777777</v>
       </c>
       <c r="D13" s="1">
-        <v>0.94027777777777777</v>
+        <v>0.9458333333333333</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
+        <v>5.5555555555555358E-3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="3">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.95694444444444438</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111072E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44980</v>
+      </c>
+      <c r="G14" s="1">
+        <f>SUM(E2:E14)+module2!G51</f>
+        <v>0.27083333333333304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="2">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="1">
+        <v>6.2499999999999995E-3</v>
+      </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.2499999999999995E-3</v>
       </c>
       <c r="F15" s="2">
-        <v>44980</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="4"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="3">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44981</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E18" s="1"/>
-      <c r="G18" s="1">
-        <f>SUM(E2:E18)+module2!G51</f>
-        <v>0.25416666666666643</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666718E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="3">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1805555555555625E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="2">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="2">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.55000000000000004">

--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF72342-70A7-4384-A487-C76A1E3312AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2FB2F2-580A-4D90-BD7F-84CBDBA3F49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23235" yWindow="-12360" windowWidth="15705" windowHeight="11280" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="23235" yWindow="-12360" windowWidth="15495" windowHeight="9990" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
     <sheet name="module3" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Total</t>
   </si>
@@ -226,6 +226,24 @@
   </si>
   <si>
     <t>Capítulo 19 Aula 06 – background-attachment e shorthand</t>
+  </si>
+  <si>
+    <t>Capítulo 19 Aula 07 – Centralização vertical de caixas</t>
+  </si>
+  <si>
+    <t>desafio 11</t>
+  </si>
+  <si>
+    <t>Capítulo 20 Aula 01 – Um projeto completo usando HTML e CSS</t>
+  </si>
+  <si>
+    <t>Capítulo 20 Aula 02 – Download e organização dos arquivos</t>
+  </si>
+  <si>
+    <t>Capítulo 20 Aula 03 – Ajustes no HTML do projeto</t>
+  </si>
+  <si>
+    <t>Capítulo 20 Aula 04 – Ajustes no CSS do projeto</t>
   </si>
 </sst>
 </file>
@@ -588,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6477F9D2-859D-45A0-B918-D94927AC7D3F}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -650,7 +668,7 @@
         <v>0.76250000000000007</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E18" si="0">D3-C3</f>
+        <f t="shared" ref="E3:E24" si="0">D3-C3</f>
         <v>9.7222222222222987E-3</v>
       </c>
       <c r="F3" s="2">
@@ -979,43 +997,158 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E19" s="1"/>
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="3">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8749999999999933E-2</v>
+      </c>
       <c r="F19" s="2">
         <v>44981</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" s="1"/>
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
       <c r="F20" s="2">
         <v>44981</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="1"/>
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6388888888889728E-3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>44981</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="1"/>
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="3">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.6958333333333333</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1666666666665408E-3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>44981</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" s="1"/>
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="3">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.6958333333333333</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.70763888888888893</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1805555555555625E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>44981</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E24" s="1"/>
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="3">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>44981</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="1"/>
+      <c r="F25" s="2">
+        <v>44981</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" s="1"/>
+      <c r="F26" s="2">
+        <v>44981</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27" s="2">
+        <v>44981</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="1"/>
+      <c r="F28" s="2">
+        <v>44981</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E29" s="1"/>
+      <c r="G29" s="1">
+        <f>SUM(E15:E28)</f>
+        <v>0.15347222222222212</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="1"/>

--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2FB2F2-580A-4D90-BD7F-84CBDBA3F49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB92745-C732-46F1-82CB-3CBA5C7D3D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23235" yWindow="-12360" windowWidth="15495" windowHeight="9990" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="18285" yWindow="-13530" windowWidth="10515" windowHeight="11640" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
     <sheet name="module3" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>Total</t>
   </si>
@@ -244,6 +244,63 @@
   </si>
   <si>
     <t>Capítulo 20 Aula 04 – Ajustes no CSS do projeto</t>
+  </si>
+  <si>
+    <t>Capítulo 20 Aula 05 – Colocando as fontes ao projeto</t>
+  </si>
+  <si>
+    <t>Capítulo 20 Aula 06 – Imagens com efeito Parallax simples</t>
+  </si>
+  <si>
+    <t>Capítulo 20 Aula 07 – Hospedando o Projeto Cordel gratuitamente</t>
+  </si>
+  <si>
+    <t>Capítulo 21 Aula 01 – Ainda podemos usar tabelas em HTML?</t>
+  </si>
+  <si>
+    <t>Capítulo 21 Aula 02 – Sua primeira tabela em HTML</t>
+  </si>
+  <si>
+    <t>Capítulo 21 Aula 03 – Alinhando o conteúdo em tabelas</t>
+  </si>
+  <si>
+    <t>Capítulo 21 Aula 04 – Aprendendo a trabalhar com tabelas grandes</t>
+  </si>
+  <si>
+    <t>Capítulo 21 Aula 05 – Caption e Escopo de títulos em tabelas</t>
+  </si>
+  <si>
+    <t>Capítulo 21 Aula 06 – Efeito Zebrado na tabela com HTML e CSS</t>
+  </si>
+  <si>
+    <t>Capítulo 21 Aula 07 – Cabeçalho fixo em tabelas grandes</t>
+  </si>
+  <si>
+    <t>Capítulo 21 Aula 08 – Mesclagem de células</t>
+  </si>
+  <si>
+    <t>desafio 13 tabelas</t>
+  </si>
+  <si>
+    <t>Capítulo 21 Aula 10 – Exemplo de tabela completa</t>
+  </si>
+  <si>
+    <t>Capítulo 21 Aula 11 – Escopos de grupo</t>
+  </si>
+  <si>
+    <t>Capítulo 21 Aula 12 – Desafios (parte 2)</t>
+  </si>
+  <si>
+    <t>desfio parte 2</t>
+  </si>
+  <si>
+    <t>Capítulo 21 Aula 13 – Agrupando Colunas com colgroup</t>
+  </si>
+  <si>
+    <t>Capítulo 21 Aula 14 – Tabelas responsivas</t>
+  </si>
+  <si>
+    <t>Teste module 3</t>
   </si>
 </sst>
 </file>
@@ -604,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6477F9D2-859D-45A0-B918-D94927AC7D3F}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -668,7 +725,7 @@
         <v>0.76250000000000007</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E24" si="0">D3-C3</f>
+        <f t="shared" ref="E3:E43" si="0">D3-C3</f>
         <v>9.7222222222222987E-3</v>
       </c>
       <c r="F3" s="2">
@@ -1120,88 +1177,468 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E25" s="1"/>
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="3">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.76180555555555562</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8750000000000155E-2</v>
+      </c>
       <c r="F25" s="2">
         <v>44981</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="1"/>
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="3">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1805555555555403E-2</v>
+      </c>
       <c r="F26" s="2">
         <v>44981</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="3">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.79027777777777775</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0833333333332149E-3</v>
+      </c>
       <c r="F27" s="2">
         <v>44981</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="1"/>
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="3">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.79583333333333339</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8611111111110938E-3</v>
+      </c>
       <c r="F28" s="2">
         <v>44981</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" s="1"/>
-      <c r="G29" s="1">
-        <f>SUM(E15:E28)</f>
-        <v>0.15347222222222212</v>
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="3">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.79652777777777783</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9444444444444375E-2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>44981</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E30" s="1"/>
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="3">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.8256944444444444</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="F30" s="2">
+        <v>44981</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" s="1"/>
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="3">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>44981</v>
+      </c>
+      <c r="G31" s="1">
+        <f>SUM(E12:E30)</f>
+        <v>0.24999999999999956</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="3">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>44982</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="3">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3333333333334147E-3</v>
+      </c>
+      <c r="F33" s="2">
+        <v>44982</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="3">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.63263888888888886</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="F34" s="2">
+        <v>44982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="3">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.68611111111111101</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666607E-2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>44982</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>44982</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="3">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.73749999999999993</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5972222222222276E-2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>44982</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="3">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44982</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="3">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.76527777777777783</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8611111111112049E-3</v>
+      </c>
+      <c r="F39" s="2">
+        <v>44982</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.76527777777777783</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6805555555555536E-2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>44982</v>
+      </c>
+      <c r="G40" s="1">
+        <f>SUM(E32:E40)</f>
+        <v>0.12777777777777788</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="3">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="F41" s="2">
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="3">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="F42" s="2">
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8611111111112049E-3</v>
+      </c>
+      <c r="F43" s="2">
+        <f>SUM(F41)</f>
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F44" s="2">
+        <f t="shared" ref="F44:F52" si="1">SUM(F42)</f>
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E45" s="1"/>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F45" s="2">
+        <f t="shared" si="1"/>
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F46" s="2">
+        <f t="shared" si="1"/>
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F47" s="2">
+        <f t="shared" si="1"/>
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F48" s="2">
+        <f t="shared" si="1"/>
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F49" s="2">
+        <f t="shared" si="1"/>
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50" s="2">
+        <f t="shared" si="1"/>
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F51" s="2">
+        <f t="shared" si="1"/>
+        <v>44983</v>
+      </c>
       <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F52" s="2">
+        <f t="shared" si="1"/>
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G53" s="1">
+        <f>SUM(E41:E52)</f>
+        <v>3.6111111111111205E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB92745-C732-46F1-82CB-3CBA5C7D3D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7037A2B4-0B2E-4C3C-B12A-22305104D38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18285" yWindow="-13530" windowWidth="10515" windowHeight="11640" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="15480" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
-    <sheet name="module3" sheetId="2" r:id="rId1"/>
-    <sheet name="module2" sheetId="1" r:id="rId2"/>
+    <sheet name="module4" sheetId="3" r:id="rId1"/>
+    <sheet name="module3" sheetId="2" r:id="rId2"/>
+    <sheet name="module2" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
   <si>
     <t>Total</t>
   </si>
@@ -301,6 +302,15 @@
   </si>
   <si>
     <t>Teste module 3</t>
+  </si>
+  <si>
+    <t>Capítulo 22 Aula 2 – Configurando iframes</t>
+  </si>
+  <si>
+    <t>Capítulo 22 Aula 1 – O iframe ainda pode ser usado?</t>
+  </si>
+  <si>
+    <t>Capítulo 22 Aula 3 – Conteúdo local no iframe</t>
   </si>
 </sst>
 </file>
@@ -660,11 +670,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E5DD25-88AC-4F4F-853C-F3BBF1000474}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="57.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="3"/>
+    <col min="3" max="4" width="8.83984375" style="1"/>
+    <col min="6" max="6" width="9.83984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="3">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="3">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="2">
+        <v>44980</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" s="1">
+        <f>SUM(E2:E10)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6477F9D2-859D-45A0-B918-D94927AC7D3F}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1646,7 +1780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB441E67-A5E4-4DE3-B82F-CDFFD92B24D6}">
   <dimension ref="A1:J51"/>
   <sheetViews>

--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7037A2B4-0B2E-4C3C-B12A-22305104D38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1CF1CF-C5DF-4AA7-BF73-0866047167CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15480" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="22200" yWindow="-14835" windowWidth="8370" windowHeight="12390" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
     <sheet name="module4" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>Total</t>
   </si>
@@ -311,6 +311,27 @@
   </si>
   <si>
     <t>Capítulo 22 Aula 3 – Conteúdo local no iframe</t>
+  </si>
+  <si>
+    <t>Capítulo 22 Aula 4 – Navegação no iframe</t>
+  </si>
+  <si>
+    <t>Capítulo 22 Aula 5 – Conteúdo no iframe por código</t>
+  </si>
+  <si>
+    <t>Capítulo 22 Aula 6 – Inconvenientes do iframe</t>
+  </si>
+  <si>
+    <t>Capítulo 22 Aula 7 – Tornando iframes mais seguros</t>
+  </si>
+  <si>
+    <t>Capítulo 22 Aula 8 – Dicas para iframes melhores</t>
+  </si>
+  <si>
+    <t>Capítulo 23 Aula 1 – Criando um projeto do zero</t>
+  </si>
+  <si>
+    <t>Capítulo 23 Aula 2 – Vamos começar o projeto</t>
   </si>
 </sst>
 </file>
@@ -671,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E5DD25-88AC-4F4F-853C-F3BBF1000474}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -713,9 +734,12 @@
       <c r="D2" s="1">
         <v>0.68958333333333333</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <f>D2-C2</f>
+        <v>1.2499999999999956E-2</v>
+      </c>
       <c r="F2" s="2">
-        <v>44980</v>
+        <v>44983</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -731,9 +755,12 @@
       <c r="D3" s="1">
         <v>0.70000000000000007</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E10" si="0">D3-C3</f>
+        <v>9.0277777777778567E-3</v>
+      </c>
       <c r="F3" s="2">
-        <v>44980</v>
+        <v>44983</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -746,45 +773,200 @@
       <c r="C4" s="1">
         <v>0.76944444444444438</v>
       </c>
+      <c r="D4" s="1">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
       <c r="F4" s="2">
-        <v>44980</v>
+        <v>44983</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.78680555555555554</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.7993055555555556</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000067E-2</v>
+      </c>
       <c r="F5" s="2">
-        <v>44980</v>
+        <v>44983</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1805555555555625E-2</v>
+      </c>
       <c r="F6" s="2">
-        <v>44980</v>
+        <v>44983</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="3">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.8222222222222223</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7222222222222987E-3</v>
+      </c>
       <c r="F7" s="2">
-        <v>44980</v>
+        <v>44983</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="3">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
       <c r="F8" s="2">
-        <v>44980</v>
+        <v>44983</v>
+      </c>
+      <c r="G8" s="1">
+        <f>SUM(E2:E8)</f>
+        <v>9.1666666666667007E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="3">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0138888888888928E-2</v>
+      </c>
       <c r="F9" s="2">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
       <c r="F10" s="2">
-        <v>44980</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G11" s="1">
-        <f>SUM(E2:E10)</f>
-        <v>0</v>
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="2">
+        <v>44984</v>
       </c>
     </row>
   </sheetData>

--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1CF1CF-C5DF-4AA7-BF73-0866047167CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE33450-20FB-41A5-8580-E0F04932F1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22200" yWindow="-14835" windowWidth="8370" windowHeight="12390" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="15480" yWindow="-16200" windowWidth="17805" windowHeight="15585" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
     <sheet name="module4" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
   <si>
     <t>Total</t>
   </si>
@@ -332,6 +332,36 @@
   </si>
   <si>
     <t>Capítulo 23 Aula 2 – Vamos começar o projeto</t>
+  </si>
+  <si>
+    <t>Capítulo 23 Aula 3 – Criando a página inicial do projeto</t>
+  </si>
+  <si>
+    <t>Capítulo 23 Aula 4 – Posicionando o conteúdo do site</t>
+  </si>
+  <si>
+    <t>Capítulo 23 Aula 5 – Criando os botões para redes sociais</t>
+  </si>
+  <si>
+    <t>Capítulo 23 Aula 6 – Criando as páginas de cada rede social</t>
+  </si>
+  <si>
+    <t>Capítulo 23 Aula 7 – Personalizando as imagens do projeto</t>
+  </si>
+  <si>
+    <t>Capítulo 24 Aula 1 – Como criar formulários com HTML5</t>
+  </si>
+  <si>
+    <t>Capítulo 24 Aula 2 – Usar Label vai melhorar seus formulários</t>
+  </si>
+  <si>
+    <t>Capítulo 24 Aula 3 – Métodos GET e POST para formulários</t>
+  </si>
+  <si>
+    <t>Capítulo 24 Aula 04 – Criando caixas de texto e de senha</t>
+  </si>
+  <si>
+    <t>Capítulo 24 Aula 05 – Elementos number, month, date e time em formulários HTML</t>
   </si>
 </sst>
 </file>
@@ -692,15 +722,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E5DD25-88AC-4F4F-853C-F3BBF1000474}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="57.89453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.7890625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83984375" style="3"/>
     <col min="3" max="4" width="8.83984375" style="1"/>
     <col min="6" max="6" width="9.83984375" style="2" bestFit="1" customWidth="1"/>
@@ -756,7 +786,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E10" si="0">D3-C3</f>
+        <f t="shared" ref="E3:E21" si="0">D3-C3</f>
         <v>9.0277777777778567E-3</v>
       </c>
       <c r="F3" s="2">
@@ -925,48 +955,265 @@
       <c r="C11" s="1">
         <v>0.625</v>
       </c>
+      <c r="D11" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.777777777777779E-2</v>
+      </c>
       <c r="F11" s="2">
         <v>44984</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="3">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
       <c r="F12" s="2">
         <v>44984</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.736111111111116E-2</v>
+      </c>
       <c r="F13" s="2">
         <v>44984</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="3">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3611111111111138E-2</v>
+      </c>
       <c r="F14" s="2">
         <v>44984</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0972222222222188E-2</v>
+      </c>
       <c r="F15" s="2">
-        <v>44984</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
       <c r="F16" s="2">
-        <v>44984</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="3">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.73402777777777783</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1805555555555625E-2</v>
+      </c>
       <c r="F17" s="2">
-        <v>44984</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="3">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.73472222222222217</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
       <c r="F18" s="2">
-        <v>44984</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="3">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.74236111111111114</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.75069444444444444</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333037E-3</v>
+      </c>
       <c r="F19" s="2">
-        <v>44984</v>
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5972222222222165E-2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="3">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.7680555555555556</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666607E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="2">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="2">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="2">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25" s="2">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F26" s="2">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27" s="2">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28" s="2">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F29" s="2">
+        <v>44985</v>
       </c>
     </row>
   </sheetData>

--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE33450-20FB-41A5-8580-E0F04932F1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22648F06-0830-452E-B958-4404C08C54C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15480" yWindow="-16200" windowWidth="17805" windowHeight="15585" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="672" yWindow="672" windowWidth="14700" windowHeight="10080" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
     <sheet name="module4" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
   <si>
     <t>Total</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>Capítulo 24 Aula 05 – Elementos number, month, date e time em formulários HTML</t>
+  </si>
+  <si>
+    <t>Capítulo 24 Aula 06 – Compatibilidade com navegadores</t>
   </si>
 </sst>
 </file>
@@ -724,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E5DD25-88AC-4F4F-853C-F3BBF1000474}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1177,6 +1180,15 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="3">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F22" s="2">
         <v>44985</v>
       </c>

--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22648F06-0830-452E-B958-4404C08C54C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E787311-1EFC-4335-BA39-1CF65216A8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="672" windowWidth="14700" windowHeight="10080" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="15480" yWindow="-13815" windowWidth="19215" windowHeight="12210" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
     <sheet name="module4" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
   <si>
     <t>Total</t>
   </si>
@@ -365,6 +365,24 @@
   </si>
   <si>
     <t>Capítulo 24 Aula 06 – Compatibilidade com navegadores</t>
+  </si>
+  <si>
+    <t>Capítulo 24 Aula 07 – Formulários com telefone e e-mail</t>
+  </si>
+  <si>
+    <t>Capítulo 24 Aula 08 – Checkbox e Radio button em HTML</t>
+  </si>
+  <si>
+    <t>Capítulo 24 Aula 09 – Elementos color, range e file em HTML</t>
+  </si>
+  <si>
+    <t>Capítulo 24 Aula 10 – Select, datalist e textarea em HTML</t>
+  </si>
+  <si>
+    <t>Capítulo 24 Aula 11 – Elemento output em formulários HTML</t>
+  </si>
+  <si>
+    <t>Capítulo 25 Aula 01 – O que são Media Queries em CSS</t>
   </si>
 </sst>
 </file>
@@ -727,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E5DD25-88AC-4F4F-853C-F3BBF1000474}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -789,7 +807,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E21" si="0">D3-C3</f>
+        <f t="shared" ref="E3:E27" si="0">D3-C3</f>
         <v>9.0277777777778567E-3</v>
       </c>
       <c r="F3" s="2">
@@ -1074,7 +1092,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -1095,7 +1113,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -1116,7 +1134,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -1137,7 +1155,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -1158,7 +1176,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -1179,7 +1197,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -1189,43 +1207,147 @@
       <c r="C22" s="1">
         <v>0.79166666666666663</v>
       </c>
+      <c r="D22" s="1">
+        <v>0.79722222222222217</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555358E-3</v>
+      </c>
       <c r="F22" s="2">
         <v>44985</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22" s="1">
+        <f>SUM(E15:E22)</f>
+        <v>0.13055555555555554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="3">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
       <c r="F23" s="2">
-        <v>44985</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="3">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8055555555555602E-2</v>
+      </c>
       <c r="F24" s="2">
-        <v>44985</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="3">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
       <c r="F25" s="2">
-        <v>44985</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="3">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8055555555555602E-2</v>
+      </c>
       <c r="F26" s="2">
         <v>44985</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="3">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.64027777777777783</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.66111111111111109</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
       <c r="F27" s="2">
         <v>44985</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="3">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.75138888888888899</v>
+      </c>
       <c r="F28" s="2">
         <v>44985</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F29" s="2">
         <v>44985</v>
+      </c>
+      <c r="G29" s="1">
+        <f>SUM(E23:E28)</f>
+        <v>8.4722222222222365E-2</v>
       </c>
     </row>
   </sheetData>

--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E787311-1EFC-4335-BA39-1CF65216A8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5EC1B3-59CE-4DB2-B7D9-09A035D813B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15480" yWindow="-13815" windowWidth="19215" windowHeight="12210" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="16470" yWindow="-15375" windowWidth="22155" windowHeight="13590" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
     <sheet name="module4" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
   <si>
     <t>Total</t>
   </si>
@@ -383,6 +383,12 @@
   </si>
   <si>
     <t>Capítulo 25 Aula 01 – O que são Media Queries em CSS</t>
+  </si>
+  <si>
+    <t>Capítulo 25 Aula 02 – Criando um site com versão para impressora</t>
+  </si>
+  <si>
+    <t>Capítulo 25 Aula 03 – Múltiplas Media Features com CSS</t>
   </si>
 </sst>
 </file>
@@ -743,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E5DD25-88AC-4F4F-853C-F3BBF1000474}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -807,7 +813,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E27" si="0">D3-C3</f>
+        <f t="shared" ref="E3:E30" si="0">D3-C3</f>
         <v>9.0277777777778567E-3</v>
       </c>
       <c r="F3" s="2">
@@ -1303,7 +1309,7 @@
         <v>1.8055555555555602E-2</v>
       </c>
       <c r="F26" s="2">
-        <v>44985</v>
+        <v>44987</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1324,7 +1330,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="F27" s="2">
-        <v>44985</v>
+        <v>44987</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1337,17 +1343,58 @@
       <c r="C28" s="1">
         <v>0.75138888888888899</v>
       </c>
+      <c r="D28" s="1">
+        <v>0.77222222222222225</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
       <c r="F28" s="2">
-        <v>44985</v>
+        <v>44987</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="3">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.89027777777777783</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777724E-2</v>
+      </c>
       <c r="F29" s="2">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="G29" s="1">
-        <f>SUM(E23:E28)</f>
-        <v>8.4722222222222365E-2</v>
+        <f>SUM(E23:E30)</f>
+        <v>0.13124999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="3">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.90625</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
   </sheetData>

--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5EC1B3-59CE-4DB2-B7D9-09A035D813B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC079FA-89E9-4ADB-9CA0-B9A387F116A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16470" yWindow="-15375" windowWidth="22155" windowHeight="13590" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="14070" yWindow="-15720" windowWidth="14700" windowHeight="10080" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
     <sheet name="module4" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="118">
   <si>
     <t>Total</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>Capítulo 25 Aula 03 – Múltiplas Media Features com CSS</t>
+  </si>
+  <si>
+    <t>Capítulo 25 Aula 04 – Seguindo a orientação do dispositivo</t>
   </si>
 </sst>
 </file>
@@ -749,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E5DD25-88AC-4F4F-853C-F3BBF1000474}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -813,7 +816,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E30" si="0">D3-C3</f>
+        <f t="shared" ref="E3:E31" si="0">D3-C3</f>
         <v>9.0277777777778567E-3</v>
       </c>
       <c r="F3" s="2">
@@ -1395,6 +1398,24 @@
       <c r="E30" s="1">
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="3">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.91875000000000007</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1805555555555403E-2</v>
       </c>
     </row>
   </sheetData>

--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC079FA-89E9-4ADB-9CA0-B9A387F116A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB9E4B2-2EC8-4DE9-8C2D-F3450CD49ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14070" yWindow="-15720" windowWidth="14700" windowHeight="10080" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="26430" yWindow="-15390" windowWidth="12705" windowHeight="12240" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
     <sheet name="module4" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
   <si>
     <t>Total</t>
   </si>
@@ -392,6 +392,12 @@
   </si>
   <si>
     <t>Capítulo 25 Aula 04 – Seguindo a orientação do dispositivo</t>
+  </si>
+  <si>
+    <t>Capítulo 25 Aula 05 – Reunindo tudo em um único CSS</t>
+  </si>
+  <si>
+    <t>Capítulo 25 Aula 06 – Mobile First</t>
   </si>
 </sst>
 </file>
@@ -752,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E5DD25-88AC-4F4F-853C-F3BBF1000474}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -816,7 +822,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E31" si="0">D3-C3</f>
+        <f t="shared" ref="E3:E32" si="0">D3-C3</f>
         <v>9.0277777777778567E-3</v>
       </c>
       <c r="F3" s="2">
@@ -1377,10 +1383,6 @@
       <c r="F29" s="2">
         <v>44987</v>
       </c>
-      <c r="G29" s="1">
-        <f>SUM(E23:E30)</f>
-        <v>0.13124999999999998</v>
-      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
@@ -1399,6 +1401,9 @@
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
+      <c r="F30" s="2">
+        <v>44987</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
@@ -1411,11 +1416,58 @@
         <v>0.91875000000000007</v>
       </c>
       <c r="D31" s="1">
+        <v>0.92986111111111114</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111072E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="3">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1">
         <v>0.93055555555555547</v>
       </c>
-      <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1805555555555403E-2</v>
+      <c r="D32" s="1">
+        <v>0.94027777777777777</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7222222222222987E-3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="3">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="F33" s="2">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F34" s="2">
+        <v>44987</v>
+      </c>
+      <c r="G34" s="1">
+        <f>SUM(E23:E34)</f>
+        <v>0.15208333333333335</v>
       </c>
     </row>
   </sheetData>

--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB9E4B2-2EC8-4DE9-8C2D-F3450CD49ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462E7539-E3B1-47EF-AA3F-D696A3247259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26430" yWindow="-15390" windowWidth="12705" windowHeight="12240" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="21405" yWindow="-15435" windowWidth="18855" windowHeight="11385" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
     <sheet name="module4" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="122">
   <si>
     <t>Total</t>
   </si>
@@ -398,6 +398,12 @@
   </si>
   <si>
     <t>Capítulo 25 Aula 06 – Mobile First</t>
+  </si>
+  <si>
+    <t>Capítulo 25 Aula 07 – Iniciando um site mobile first</t>
+  </si>
+  <si>
+    <t>Capítulo 25 Aula 08 – Device breakpoints</t>
   </si>
 </sst>
 </file>
@@ -758,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E5DD25-88AC-4F4F-853C-F3BBF1000474}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -822,7 +828,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E32" si="0">D3-C3</f>
+        <f t="shared" ref="E3:E35" si="0">D3-C3</f>
         <v>9.0277777777778567E-3</v>
       </c>
       <c r="F3" s="2">
@@ -1457,17 +1463,67 @@
       <c r="C33" s="1">
         <v>0.98333333333333339</v>
       </c>
+      <c r="D33" s="1">
+        <v>0.99236111111111114</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0277777777777457E-3</v>
+      </c>
       <c r="F33" s="2">
         <v>44987</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="3">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.0125</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9444444444444486E-2</v>
+      </c>
       <c r="F34" s="2">
         <v>44987</v>
       </c>
       <c r="G34" s="1">
         <f>SUM(E23:E34)</f>
-        <v>0.15208333333333335</v>
+        <v>0.18055555555555558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="3">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.81111111111111101</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.82916666666666661</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8055555555555602E-2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G40" s="1">
+        <f>SUM(E35:E40)</f>
+        <v>1.8055555555555602E-2</v>
       </c>
     </row>
   </sheetData>

--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462E7539-E3B1-47EF-AA3F-D696A3247259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C546C4-AC73-4A89-9E0F-837BAE32E9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21405" yWindow="-15435" windowWidth="18855" windowHeight="11385" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="672" yWindow="672" windowWidth="17886" windowHeight="12300" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
     <sheet name="module4" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
   <si>
     <t>Total</t>
   </si>
@@ -404,6 +404,15 @@
   </si>
   <si>
     <t>Capítulo 25 Aula 08 – Device breakpoints</t>
+  </si>
+  <si>
+    <t>Capítulo 25 Aula 09 – Menu responsivo com HTML5 e CSS3</t>
+  </si>
+  <si>
+    <t>Capítulo 25 Aula 10 – Configurando o layout do projeto</t>
+  </si>
+  <si>
+    <t>Capítulo 25 Aula 11 – Criando um menu hambúrguer</t>
   </si>
 </sst>
 </file>
@@ -764,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E5DD25-88AC-4F4F-853C-F3BBF1000474}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -828,7 +837,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E35" si="0">D3-C3</f>
+        <f t="shared" ref="E3:E38" si="0">D3-C3</f>
         <v>9.0277777777778567E-3</v>
       </c>
       <c r="F3" s="2">
@@ -1520,10 +1529,71 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G40" s="1">
-        <f>SUM(E35:E40)</f>
-        <v>1.8055555555555602E-2</v>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="3">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.8354166666666667</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1805555555555514E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>44988</v>
+      </c>
+      <c r="G36" s="1">
+        <f>SUM(E35:E36)</f>
+        <v>2.9861111111111116E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="3">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.59375</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000067E-2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>44989</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="3">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44989</v>
       </c>
     </row>
   </sheetData>

--- a/agenda controle.xlsx
+++ b/agenda controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguia\Documents\GitHub\ProjetosEstudos\module1--html5---css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C546C4-AC73-4A89-9E0F-837BAE32E9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAACB37B-130D-4ECA-A8F8-6CDFE75301D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="672" windowWidth="17886" windowHeight="12300" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
+    <workbookView xWindow="672" yWindow="672" windowWidth="14700" windowHeight="10080" xr2:uid="{FD96FF53-C3B6-47FE-BDDB-316B30E4002C}"/>
   </bookViews>
   <sheets>
     <sheet name="module4" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
   <si>
     <t>Total</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>Capítulo 25 Aula 11 – Criando um menu hambúrguer</t>
+  </si>
+  <si>
+    <t>Capítulo 25 Aula 12 – Media Queries para outros dispositivos</t>
   </si>
 </sst>
 </file>
@@ -773,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E5DD25-88AC-4F4F-853C-F3BBF1000474}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -837,7 +840,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E38" si="0">D3-C3</f>
+        <f t="shared" ref="E3:E39" si="0">D3-C3</f>
         <v>9.0277777777778567E-3</v>
       </c>
       <c r="F3" s="2">
@@ -1593,6 +1596,47 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="F38" s="2">
+        <v>44989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="3">
+        <v>15</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000067E-2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>44989</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F40" s="2">
+        <v>44989</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F41" s="2">
+        <v>44989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42" s="2">
+        <v>44989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F43" s="2">
         <v>44989</v>
       </c>
     </row>
